--- a/DataResultsBorrador.xlsx
+++ b/DataResultsBorrador.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f138c2c5cef2cc1/DIEGO/EPN/TIC/TIC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f138c2c5cef2cc1/DIEGO/EPN/TIC/TIC/Data-TIC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="8_{9F50C47A-DE95-42B2-B0A5-929A44AB48F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59C5E141-FE13-4FDB-97F1-49DF04622118}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{9F50C47A-DE95-42B2-B0A5-929A44AB48F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74B93789-5B53-44D1-A12C-7119133091CA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2B568552-BB91-46F9-BE50-E014D196B225}"/>
   </bookViews>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="1346">
   <si>
     <t>your comment</t>
   </si>
@@ -6129,6 +6129,9 @@
   <si>
     <t xml:space="preserve">Match outcomes prediction of six top english premier league clubs via machine learning technique
 </t>
+  </si>
+  <si>
+    <t>LOL</t>
   </si>
 </sst>
 </file>
@@ -6542,8 +6545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AB5205-251F-4796-B726-6ED861EBD3FB}">
   <dimension ref="A1:BT210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6811,7 +6814,9 @@
       <c r="K2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>1345</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
